--- a/Project Outputs for Multi LT circuit/Multi LT circuit.xlsx
+++ b/Project Outputs for Multi LT circuit/Multi LT circuit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\(C) Admin\Altium (beta)\Multi LTC\Multi-LTC-ECG\Project Outputs for Multi LT circuit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CD0B7B4-6C62-4122-9762-D5B3FE998BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{846A769F-6B59-48DF-A640-7C27A2D49531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{947E05D0-655A-4908-9685-C4093CCCA718}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{7CAE8452-05E0-4AF4-9C83-A9CEF36DDC21}"/>
   </bookViews>
   <sheets>
     <sheet name="Multi LT circuit" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="133">
+  <si>
+    <t>Manufacturer_Name</t>
+  </si>
+  <si>
+    <t>Manufacturer_Part_Number</t>
+  </si>
   <si>
     <t>Comment</t>
   </si>
@@ -53,52 +59,193 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Mouser Part Number</t>
-  </si>
-  <si>
-    <t>Mouser Price/Stock</t>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Mounting Style</t>
+  </si>
+  <si>
+    <t>Pins</t>
+  </si>
+  <si>
+    <t>Analog Devices</t>
+  </si>
+  <si>
+    <t>AD8065ARZ</t>
+  </si>
+  <si>
+    <t>Integrated Circuit</t>
+  </si>
+  <si>
+    <t>AD_IC1, AD_IC3</t>
+  </si>
+  <si>
+    <t>SOIC-8</t>
+  </si>
+  <si>
+    <t>SMD/SMT</t>
+  </si>
+  <si>
+    <t>LT1920IS8#PBF</t>
+  </si>
+  <si>
+    <t>AD_IC2, IC2, LIC2</t>
+  </si>
+  <si>
+    <t>Pad</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>AD_P1, AD_P2, AD_P3, AD_P4, AD_P5, AD_P6, AD_P7, AD_P8, AD_P9, AD_P10, AD_P11, LP1, LP2, LP3, LP4, LP5, LP6, LP7, LP8, LP9, LP10, LP11, LP12, LP13, LP14, P1, P2, P3, P4, P5, P6, P7, P8, P9, P10, P11, P12, P13, P14, P15, P16, P17, P18, P19, P20, P21, P22</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>CRG0805F270R</t>
+  </si>
+  <si>
+    <t>Resistor 270</t>
+  </si>
+  <si>
+    <t>AD_R1, AD_R5, LR1, LR5</t>
+  </si>
+  <si>
+    <t>0805 (in)</t>
+  </si>
+  <si>
+    <t>CRG0805F4K7</t>
+  </si>
+  <si>
+    <t>Resistor 4.7k</t>
+  </si>
+  <si>
+    <t>AD_R2, LR2</t>
+  </si>
+  <si>
+    <t>CRGH0805F20R</t>
+  </si>
+  <si>
+    <t>Resistor 20</t>
+  </si>
+  <si>
+    <t>AD_R3, AD_R6, LR3, LR6</t>
+  </si>
+  <si>
+    <t>CRG0805F330R</t>
+  </si>
+  <si>
+    <t>Resistor 330</t>
+  </si>
+  <si>
+    <t>AD_R4, LR4</t>
+  </si>
+  <si>
+    <t>RH73X2A10GNTN</t>
+  </si>
+  <si>
+    <t>Resistor 10G</t>
+  </si>
+  <si>
+    <t>AD_R7, AD_R12, LR7, LR12</t>
+  </si>
+  <si>
+    <t>RH73X2A50GNTN</t>
+  </si>
+  <si>
+    <t>Resistor 50G</t>
+  </si>
+  <si>
+    <t>AD_R8, AD_R11, LR8, LR11</t>
+  </si>
+  <si>
+    <t>RH73H2A100MKTN</t>
+  </si>
+  <si>
+    <t>Resistor 100M</t>
+  </si>
+  <si>
+    <t>AD_R9, AD_R14, LR9, LR14</t>
+  </si>
+  <si>
+    <t>RH73W2A1GNTN</t>
+  </si>
+  <si>
+    <t>Resistor 1G</t>
+  </si>
+  <si>
+    <t>AD_R10, AD_R13, LR10, LR13</t>
+  </si>
+  <si>
+    <t>Wurth Elektronik</t>
+  </si>
+  <si>
+    <t>452403012014</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>AD_S1, LS1</t>
+  </si>
+  <si>
+    <t>NIDEC COPAL</t>
+  </si>
+  <si>
+    <t>CS-4-12YA</t>
+  </si>
+  <si>
+    <t>AD_S2, LS2</t>
+  </si>
+  <si>
+    <t>Copal Electronics</t>
+  </si>
+  <si>
+    <t>CS-7-14TB</t>
+  </si>
+  <si>
+    <t>AD_S3, AD_S4, LS3, LS4</t>
+  </si>
+  <si>
+    <t>CUI Devices</t>
+  </si>
+  <si>
+    <t>DS05-127-2-02BK-SMT-TR</t>
+  </si>
+  <si>
+    <t>AD_S5, LS5</t>
+  </si>
+  <si>
+    <t>Murata Electronics</t>
   </si>
   <si>
     <t>GCM21BD70J106KE02K</t>
   </si>
   <si>
-    <t>Capacitor</t>
-  </si>
-  <si>
-    <t>C1, C2, C3, C4, C5, C6, C7, C8, C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19, C20, C21, C22, C23, C24, C25, C26, C27, C28, C29, C30, C31, C32, C33, C34, C35, C36</t>
-  </si>
-  <si>
-    <t>81-GCM21BD70J106KE2K</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/ProductDetail/Murata-Electronics/GCM21BD70J106KE02K?qs=ufv2HEpFn%252BR%2FX0aJNPDpRg%3D%3D</t>
+    <t>Capacitor 10uF</t>
+  </si>
+  <si>
+    <t>C1, C3, C5, C7, C9, C11, C13, C15, C17, C19, C21, C23, C25, C27, C29, C31, C33, C35</t>
+  </si>
+  <si>
+    <t>GCJ21BR72A104KA01K</t>
+  </si>
+  <si>
+    <t>Capacitor 0.1uF</t>
+  </si>
+  <si>
+    <t>C2, C4, C6, C8, C10, C12, C14, C16, C18, C20, C22, C24, C26, C28, C30, C32, C34, C36</t>
   </si>
   <si>
     <t>LTC6268IS8-10#PBF</t>
   </si>
   <si>
-    <t>Integrated Circuit</t>
-  </si>
-  <si>
-    <t>IC1, IC4</t>
-  </si>
-  <si>
-    <t>584-LTC6268IS8-10PBF</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/ProductDetail/Analog-Devices/LTC6268IS8-10PBF?qs=oahfZPh6IAJW%252BkNj5oLlfA%3D%3D</t>
-  </si>
-  <si>
-    <t>LT1920IS8#PBF</t>
-  </si>
-  <si>
-    <t>IC2</t>
-  </si>
-  <si>
-    <t>584-LT1920IS8#PBF</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/ProductDetail/Analog-Devices/LT1920IS8PBF?qs=ytflclh7QUWOSod6PqfjSg%3D%3D</t>
+    <t>IC1, IC4, LIC1, LIC3</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
   </si>
   <si>
     <t>OPA810IDR</t>
@@ -107,22 +254,13 @@
     <t>IC3</t>
   </si>
   <si>
-    <t>595-OPA810IDR</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/ProductDetail/Texas-Instruments/OPA810IDR?qs=ToK3%2FczOkx8EaDuN35bMdg%3D%3D</t>
-  </si>
-  <si>
     <t>LTC2066HSC6#TRMPBF</t>
   </si>
   <si>
     <t>IC5, IC6, IC7, IC8</t>
   </si>
   <si>
-    <t>584-LTC2066HSC6TRMPB</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/ProductDetail/Analog-Devices/LTC2066HSC6TRMPBF?qs=W0yvOO0ixfHn5Jrn%2FV4Xwg%3D%3D</t>
+    <t>SC-70-6</t>
   </si>
   <si>
     <t>Jumper</t>
@@ -131,15 +269,6 @@
     <t>J1</t>
   </si>
   <si>
-    <t>Pad</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>P1, P2, P3, P4, P5, P6, P7, P8, P9, P10, P11, P12, P13, P14, P15, P16, P17, P18, P19, P20, P21, P22</t>
-  </si>
-  <si>
     <t>CRG0805F20K</t>
   </si>
   <si>
@@ -149,12 +278,6 @@
     <t>R1, R4</t>
   </si>
   <si>
-    <t>279-CRG0805F20K</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/ProductDetail/TE-Connectivity-Holsworthy/CRG0805F20K?qs=o1jQnaWw5FTLjD3rzUcvvQ%3D%3D</t>
-  </si>
-  <si>
     <t>CRG0805F100K</t>
   </si>
   <si>
@@ -164,12 +287,6 @@
     <t>R2, R5, R13, R14, R17</t>
   </si>
   <si>
-    <t>279-CRG0805F100K</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/ProductDetail/TE-Connectivity-Holsworthy/CRG0805F100K?qs=VHcS2MTj4gaSH6styLNYqg%3D%3D</t>
-  </si>
-  <si>
     <t>CRGH0805F1M0</t>
   </si>
   <si>
@@ -179,12 +296,6 @@
     <t>R3, R6, R7, R15, R16</t>
   </si>
   <si>
-    <t>279-CRGH0805F1M0</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/ProductDetail/TE-Connectivity-Holsworthy/CRGH0805F1M0?qs=n4i9pByFsMQTrmSXKnTEpA%3D%3D</t>
-  </si>
-  <si>
     <t>CRGH0805F1K0</t>
   </si>
   <si>
@@ -194,10 +305,7 @@
     <t>R8, R20</t>
   </si>
   <si>
-    <t>279-CRGH0805F1K0</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/ProductDetail/TE-Connectivity-Holsworthy/CRGH0805F1K0?qs=n4i9pByFsMSWm5mr6nHHgQ%3D%3D</t>
+    <t>SDM/SMT</t>
   </si>
   <si>
     <t>CRGH0805F2K05</t>
@@ -209,12 +317,6 @@
     <t>R9</t>
   </si>
   <si>
-    <t>279-CRGH0805F2K05</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/ProductDetail/TE-Connectivity-Holsworthy/CRGH0805F2K05?qs=iJVBkmKXgrmDHHgzxlQP4A%3D%3D</t>
-  </si>
-  <si>
     <t>CRGH0805J10M</t>
   </si>
   <si>
@@ -224,12 +326,6 @@
     <t>R10, R18</t>
   </si>
   <si>
-    <t>279-CRGH0805J10M</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/ProductDetail/TE-Connectivity-Holsworthy/CRGH0805J10M?qs=s1WWODT2SXVlIm5RdQkQ6A%3D%3D</t>
-  </si>
-  <si>
     <t>CRG0805F5K49</t>
   </si>
   <si>
@@ -239,12 +335,6 @@
     <t>R11</t>
   </si>
   <si>
-    <t>279-CRG0805F5K49</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/Search/Refine.aspx?Keyword=279-CRG0805F5K49</t>
-  </si>
-  <si>
     <t>CRGH0805F16K5</t>
   </si>
   <si>
@@ -254,12 +344,6 @@
     <t>R12</t>
   </si>
   <si>
-    <t>279-CRGH0805F16K5</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/Search/ProductDetail.aspx?qs=5Dj%252bCDyFp7hGExF3fizuRg%3d%3d</t>
-  </si>
-  <si>
     <t>CRGH0805F10K</t>
   </si>
   <si>
@@ -269,12 +353,6 @@
     <t>R19</t>
   </si>
   <si>
-    <t>279-CRGH0805F10K</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/ProductDetail/TE-Connectivity-Holsworthy/CRGH0805F10K?qs=HLeXuo0aL2p58CY%2FK%252BmPjw%3D%3D</t>
-  </si>
-  <si>
     <t>CPF0805B499KE1</t>
   </si>
   <si>
@@ -284,12 +362,6 @@
     <t>R21, R22, R24, R37, R39, R41</t>
   </si>
   <si>
-    <t>279-CPF0805B499KE1</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/Search/Refine.aspx?Keyword=279-CPF0805B499KE1</t>
-  </si>
-  <si>
     <t>CRGH0805F191K</t>
   </si>
   <si>
@@ -299,12 +371,6 @@
     <t>R23, R42</t>
   </si>
   <si>
-    <t>279-CRGH0805F191K</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/ProductDetail/TE-Connectivity-Neohm/CRGH0805F191K?qs=8G8kQhBkhGgT%2F02BvhuEeQ%3D%3D</t>
-  </si>
-  <si>
     <t>CPF0805B1M6E1</t>
   </si>
   <si>
@@ -314,12 +380,6 @@
     <t>R25, R31, R32, R40</t>
   </si>
   <si>
-    <t>279-CPF0805B1M6E1</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/ProductDetail/TE-Connectivity-Holsworthy/CPF0805B1M6E1?qs=5Dj%252BCDyFp7gud0VX0vRDmw%3D%3D</t>
-  </si>
-  <si>
     <t>CRGH0805F76K8</t>
   </si>
   <si>
@@ -329,12 +389,6 @@
     <t>R26, R35</t>
   </si>
   <si>
-    <t>279-CRGH0805F76K8</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/ProductDetail/TE-Connectivity-Neohm/CRGH0805F76K8?qs=n4i9pByFsMR%252BcSh%252Bt%2FGYIw%3D%3D</t>
-  </si>
-  <si>
     <t>CPF-A-0805B200KE</t>
   </si>
   <si>
@@ -344,12 +398,6 @@
     <t>R27, R34</t>
   </si>
   <si>
-    <t>279-CPF-A-0805B200KE</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/ProductDetail/TE-Connectivity/CPF-A-0805B200KE?qs=chTDxNqvsympgoiwwdg80g%3D%3D</t>
-  </si>
-  <si>
     <t>CRGH0805F14K7</t>
   </si>
   <si>
@@ -359,12 +407,6 @@
     <t>R28, R33</t>
   </si>
   <si>
-    <t>279-CRGH0805F14K7</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/ProductDetail/TE-Connectivity-Neohm/CRGH0805F14K7/?qs=n4i9pByFsMT0ugrouB9KxA%3D%3D</t>
-  </si>
-  <si>
     <t>CPF-A-0805B49K9E1</t>
   </si>
   <si>
@@ -374,12 +416,6 @@
     <t>R29, R36</t>
   </si>
   <si>
-    <t>279-CPF-A0805B49K9E1</t>
-  </si>
-  <si>
-    <t>https://www.mouser.vn/ProductDetail/TE-Connectivity-Holsworthy/CPF-A-0805B49K9E1?qs=sGAEpiMZZMtlubZbdhIBILA%2F3gb4ZcwrSl2lU3bSvkw%3D</t>
-  </si>
-  <si>
     <t>CRGH0805F15K</t>
   </si>
   <si>
@@ -389,37 +425,19 @@
     <t>R30, R38</t>
   </si>
   <si>
-    <t>279-CRGH0805F15K</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/ProductDetail/TE-Connectivity-Holsworthy/CRGH0805F15K?qs=n4i9pByFsMSabXcbjCkahQ%3D%3D</t>
+    <t>Nidec Components</t>
   </si>
   <si>
     <t>CS-4-14NA</t>
   </si>
   <si>
-    <t>Switch</t>
-  </si>
-  <si>
     <t>S1, S2, S3, S4, S5, S6, S7, S9, S10, S11</t>
   </si>
   <si>
-    <t>229-CS-4-14NA</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/ProductDetail/Nidec-Components/CS-4-14NA?qs=XeJtXLiO41SJhPXQmbZZMw%3D%3D</t>
-  </si>
-  <si>
     <t>CS-4-22YTA</t>
   </si>
   <si>
     <t>S8</t>
-  </si>
-  <si>
-    <t>229-CS-4-22YTA</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/ProductDetail/Nidec-Components/CS-4-22YTA?qs=XeJtXLiO41RMhjAhvBd3rw%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -795,18 +813,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C5C296-675E-4CD3-96EE-D29F810D5714}">
-  <dimension ref="A1:F27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2240E2-D654-4C01-A4D3-30C37A2A677B}">
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="19" customWidth="1"/>
-    <col min="5" max="6" width="16" customWidth="1"/>
+    <col min="1" max="2" width="16" customWidth="1"/>
+    <col min="3" max="6" width="19" customWidth="1"/>
+    <col min="7" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -825,515 +844,1142 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
-        <v>36</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1">
+        <v>47</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1">
-        <v>22</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="F10" s="1">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="1">
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="1">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="1">
+        <v>18</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="1">
         <v>5</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="G24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="1">
         <v>5</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="G25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="1">
+        <v>6</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="1">
+        <v>4</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="E40" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F40" s="1">
+        <v>10</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="B41" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="G41" s="1"/>
+      <c r="H41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="1">
         <v>6</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="1">
-        <v>4</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="1">
-        <v>10</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Project Outputs for Multi LT circuit/Multi LT circuit.xlsx
+++ b/Project Outputs for Multi LT circuit/Multi LT circuit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\(C) Admin\Altium (beta)\Multi LTC\Multi-LTC-ECG\Project Outputs for Multi LT circuit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{846A769F-6B59-48DF-A640-7C27A2D49531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B08C5E3-D03A-406A-BD2B-0938BB52BE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{7CAE8452-05E0-4AF4-9C83-A9CEF36DDC21}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{DB61B8AA-7B12-4171-A1DC-A3598CEC7AFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Multi LT circuit" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="135">
   <si>
     <t>Manufacturer_Name</t>
   </si>
@@ -62,12 +62,6 @@
     <t>Case</t>
   </si>
   <si>
-    <t>Mounting Style</t>
-  </si>
-  <si>
-    <t>Pins</t>
-  </si>
-  <si>
     <t>Analog Devices</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
     <t>SOIC-8</t>
   </si>
   <si>
-    <t>SMD/SMT</t>
-  </si>
-  <si>
     <t>LT1920IS8#PBF</t>
   </si>
   <si>
@@ -125,7 +116,10 @@
     <t>AD_R2, LR2</t>
   </si>
   <si>
-    <t>CRGH0805F20R</t>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>ERJ-HP6F20R0V</t>
   </si>
   <si>
     <t>Resistor 20</t>
@@ -227,7 +221,7 @@
     <t>Capacitor 10uF</t>
   </si>
   <si>
-    <t>C1, C3, C5, C7, C9, C11, C13, C15, C17, C19, C21, C23, C25, C27, C29, C31, C33, C35</t>
+    <t>C1, C3, C5, C7, C9, C11, C13, C15, C17, C19, C21, C23, C25, C27, C29, C31</t>
   </si>
   <si>
     <t>GCJ21BR72A104KA01K</t>
@@ -239,6 +233,18 @@
     <t>C2, C4, C6, C8, C10, C12, C14, C16, C18, C20, C22, C24, C26, C28, C30, C32, C34, C36</t>
   </si>
   <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>C0805C109B3GACTU</t>
+  </si>
+  <si>
+    <t>Capacitor 1pF</t>
+  </si>
+  <si>
+    <t>C33, C35</t>
+  </si>
+  <si>
     <t>LTC6268IS8-10#PBF</t>
   </si>
   <si>
@@ -305,10 +311,10 @@
     <t>R8, R20</t>
   </si>
   <si>
-    <t>SDM/SMT</t>
-  </si>
-  <si>
-    <t>CRGH0805F2K05</t>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>CRCW08052K05FKEA</t>
   </si>
   <si>
     <t>Resistor 2.05k</t>
@@ -326,7 +332,7 @@
     <t>R10, R18</t>
   </si>
   <si>
-    <t>CRG0805F5K49</t>
+    <t>CRCW08055K49FKEAHP</t>
   </si>
   <si>
     <t>Resistor 5.49k</t>
@@ -335,7 +341,7 @@
     <t>R11</t>
   </si>
   <si>
-    <t>CRGH0805F16K5</t>
+    <t>CRCW080516K5FKEA</t>
   </si>
   <si>
     <t>Resistor 16.5k</t>
@@ -380,7 +386,7 @@
     <t>R25, R31, R32, R40</t>
   </si>
   <si>
-    <t>CRGH0805F76K8</t>
+    <t>ERJ-6ENF7682V</t>
   </si>
   <si>
     <t>Resistor 76.8k</t>
@@ -398,7 +404,7 @@
     <t>R27, R34</t>
   </si>
   <si>
-    <t>CRGH0805F14K7</t>
+    <t>CRCW080514K7FKEA</t>
   </si>
   <si>
     <t>Resistor 14.7k</t>
@@ -813,8 +819,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2240E2-D654-4C01-A4D3-30C37A2A677B}">
-  <dimension ref="A1:I41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57A3DE9-C76D-4BB8-AB5A-B79F2D00E355}">
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -822,10 +828,10 @@
   <cols>
     <col min="1" max="2" width="16" customWidth="1"/>
     <col min="3" max="6" width="19" customWidth="1"/>
-    <col min="7" max="9" width="16" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -847,549 +853,431 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1">
         <v>47</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F7" s="1">
         <v>4</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F9" s="1">
         <v>4</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F10" s="1">
         <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F11" s="1">
         <v>4</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F12" s="1">
         <v>4</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F14" s="1">
         <v>2</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="F15" s="1">
         <v>4</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="F17" s="1">
+        <v>16</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="1">
-        <v>18</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F18" s="1">
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="1">
         <v>4</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>71</v>
@@ -1398,566 +1286,452 @@
         <v>71</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="1">
         <v>4</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>76</v>
-      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
       <c r="C23" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="1">
+      <c r="C24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="1">
         <v>2</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="G24" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="1">
-        <v>5</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F25" s="1">
         <v>5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="1">
+        <v>5</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="G27" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="1">
         <v>2</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I26" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="G29" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="1">
-        <v>2</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="1">
+        <v>6</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F32" s="1">
-        <v>6</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="1">
-        <v>2</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="G34" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F34" s="1">
+      <c r="C35" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="1">
         <v>4</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="G35" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="1">
-        <v>2</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F36" s="1">
         <v>2</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F37" s="1">
         <v>2</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F38" s="1">
         <v>2</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F39" s="1">
         <v>2</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="G40" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="F40" s="1">
-        <v>10</v>
-      </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>131</v>
@@ -1966,21 +1740,36 @@
         <v>131</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>132</v>
       </c>
       <c r="F41" s="1">
+        <v>10</v>
+      </c>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F42" s="1">
         <v>1</v>
       </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="1">
-        <v>6</v>
-      </c>
+      <c r="G42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project Outputs for Multi LT circuit/Multi LT circuit.xlsx
+++ b/Project Outputs for Multi LT circuit/Multi LT circuit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\(C) Admin\Altium (beta)\Multi LTC\Multi-LTC-ECG\Project Outputs for Multi LT circuit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B08C5E3-D03A-406A-BD2B-0938BB52BE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{842AA15A-939F-462C-AEA9-C602401DDF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{DB61B8AA-7B12-4171-A1DC-A3598CEC7AFD}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{ACDE67FE-CDE4-4450-96F3-1C38C4740F53}"/>
   </bookViews>
   <sheets>
     <sheet name="Multi LT circuit" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="138">
   <si>
     <t>Manufacturer_Name</t>
   </si>
@@ -62,6 +62,9 @@
     <t>Case</t>
   </si>
   <si>
+    <t>Mounting Style</t>
+  </si>
+  <si>
     <t>Analog Devices</t>
   </si>
   <si>
@@ -77,6 +80,9 @@
     <t>SOIC-8</t>
   </si>
   <si>
+    <t>SMD/SMT</t>
+  </si>
+  <si>
     <t>LT1920IS8#PBF</t>
   </si>
   <si>
@@ -309,6 +315,9 @@
   </si>
   <si>
     <t>R8, R20</t>
+  </si>
+  <si>
+    <t>SDM/SMT</t>
   </si>
   <si>
     <t>Vishay</t>
@@ -819,8 +828,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57A3DE9-C76D-4BB8-AB5A-B79F2D00E355}">
-  <dimension ref="A1:G42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2317C0D8-B0C7-493C-AB9F-DB0199A88AA9}">
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -828,10 +837,10 @@
   <cols>
     <col min="1" max="2" width="16" customWidth="1"/>
     <col min="3" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="7" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -853,923 +862,1039 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1">
         <v>47</v>
       </c>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1">
         <v>4</v>
       </c>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1">
         <v>4</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1">
         <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1">
         <v>4</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1">
         <v>4</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
       </c>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F14" s="1">
         <v>2</v>
       </c>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F15" s="1">
         <v>4</v>
       </c>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
       </c>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F17" s="1">
         <v>16</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F18" s="1">
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F19" s="1">
         <v>2</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F20" s="1">
         <v>4</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F22" s="1">
         <v>4</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F24" s="1">
         <v>2</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F25" s="1">
         <v>5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F26" s="1">
         <v>5</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F27" s="1">
         <v>2</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F29" s="1">
         <v>2</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F33" s="1">
         <v>6</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F34" s="1">
         <v>2</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F35" s="1">
         <v>4</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F36" s="1">
         <v>2</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F37" s="1">
         <v>2</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F38" s="1">
         <v>2</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F39" s="1">
         <v>2</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F40" s="1">
         <v>2</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F41" s="1">
         <v>10</v>
       </c>
       <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F42" s="1">
         <v>1</v>
       </c>
       <c r="G42" s="1"/>
+      <c r="H42" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
